--- a/biology/Histoire de la zoologie et de la botanique/Royal_Horticultural_Society/Royal_Horticultural_Society.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Royal_Horticultural_Society/Royal_Horticultural_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Royal Horticultural Society, (RHS) est fondée en 1804 à Londres, en Angleterre, sous le nom de The Horticultural Society of London. Son nom actuel lui est octroyé par une charte royale signée par le prince Albert en 1861.
@@ -518,11 +530,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médaille Victoria de l'honneur
-La médaille Victoria de l'honneur, distinction créée en 1897, est décernée aux 63 personnalités les plus importantes de l’horticulture britannique.
-Médaille commémorative Veitch
-Award of Garden Merit
-Il existe plus de 100 000 plantes ornementales. Une part intrinsèque du travail de la Société royale d’horticulture a été, depuis sa fondation, de mener des essais afin de déterminer les meilleurs cultivars dignes de recevoir un Award of Garden Merit. Le prix indique que la plante est recommandée par la RHS après des périodes d’essais menés dans les jardins de la  RHS, le plus souvent à Wisley et après l’accord favorable des commissions. C’est l’ensemble du règne végétal qui est ainsi passé sous l’œil expert de la RHS : arbres, arbustes, plantes annuelles, bisannuelles, vivaces, fougères, légumes, etc.
+          <t>Médaille Victoria de l'honneur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médaille Victoria de l'honneur, distinction créée en 1897, est décernée aux 63 personnalités les plus importantes de l’horticulture britannique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Royal_Horticultural_Society</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Royal_Horticultural_Society</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Award of Garden Merit</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plus de 100 000 plantes ornementales. Une part intrinsèque du travail de la Société royale d’horticulture a été, depuis sa fondation, de mener des essais afin de déterminer les meilleurs cultivars dignes de recevoir un Award of Garden Merit. Le prix indique que la plante est recommandée par la RHS après des périodes d’essais menés dans les jardins de la  RHS, le plus souvent à Wisley et après l’accord favorable des commissions. C’est l’ensemble du règne végétal qui est ainsi passé sous l’œil expert de la RHS : arbres, arbustes, plantes annuelles, bisannuelles, vivaces, fougères, légumes, etc.
 L’Award of Garden Merit est une valeur pratique pour le jardinier amateur. Il doit correspondre à des critères bien définis :
 la plante doit avoir une valeur exceptionnelle pour la décoration du jardin amateur ou pour l’usage,
 elle doit être disponible,
@@ -535,31 +586,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Royal_Horticultural_Society</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Royal_Horticultural_Society</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste des dirigeants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
